--- a/Mechanical/Arbeitszeiten.xlsx
+++ b/Mechanical/Arbeitszeiten.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Arbeitsstunden</t>
+  </si>
+  <si>
+    <t>Stunde</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,13 +414,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -440,8 +446,8 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="H3">
-        <f>SUM(B3:B21)</f>
-        <v>56.5</v>
+        <f>SUM(B3:B100)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,7 +702,176 @@
         <v>0.44791666666666669</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43106</v>
+      </c>
+      <c r="B25">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42743</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42743</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42744</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42744</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42744</v>
+      </c>
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42744</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42745</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42746</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>